--- a/Lit_rev.xlsx
+++ b/Lit_rev.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/belacquator/Desktop/research-module/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimolinari/Desktop/RM Behavioral Contract Theory/research_module/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022BCA16-434C-6643-9D16-DB5F1367C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72FA84-8112-CE44-9B33-1A015483BA7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1060" windowWidth="27400" windowHeight="16940" activeTab="1" xr2:uid="{39E8E507-D041-C44F-958A-D985E70C29FC}"/>
+    <workbookView xWindow="300" yWindow="1060" windowWidth="27400" windowHeight="16940" xr2:uid="{39E8E507-D041-C44F-958A-D985E70C29FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1307,7 +1306,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1670,24 +1669,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052159D6-8BF3-B54D-A0CE-CFAFCC1F1C3D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA67E2F6-C925-6E44-BBC8-AC72C40E086D}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1750,7 +1735,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="221">
+    <row r="4" spans="1:6" ht="204">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +1941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="204">
+    <row r="19" spans="1:5" ht="187">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1984,7 +1969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="126">
+    <row r="21" spans="1:5" ht="144">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +1983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="388">
+    <row r="22" spans="1:5" ht="372">
       <c r="A22" s="10" t="s">
         <v>29</v>
       </c>
